--- a/biology/Histoire de la zoologie et de la botanique/Louis_Arnoux/Louis_Arnoux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Arnoux/Louis_Arnoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Arnoux (15 avril 1814 à Grenoble, Isère - 3 février 1867 à Saint-Rémy-de-Provence, Bouches-du-Rhône) est un chirurgien de marine et voyageur-naturaliste grenoblois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né d’un père maréchal-ferrant et d’une mère issue d’une famille rurale de Crolles. Il fait ses études au Collège de Grenoble.
 En 1836, il embarque sur la frégate La Galathée en qualité de chirurgien auxiliaire. La réussite d’un concours lui permet d’accéder au grade de chirurgien de marine de 3e classe.
@@ -548,7 +562,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joëlle Rochas. Muséum de Grenoble : une histoire naturelle. Édité par le Muséum de Grenoble, 2008 (ouvrage adapté de la thèse de l'auteur).
 Bernard Serra-Tosio. Louis Arnoux (1814-1867), chirurgien de marine et voyageur-naturaliste grenoblois. Conférence donnée au Bio-Club le 19 février 1996. Bulletin du Bio-Club.</t>
